--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.89290866666667</v>
+        <v>19.28294533333333</v>
       </c>
       <c r="H2">
-        <v>47.678726</v>
+        <v>57.848836</v>
       </c>
       <c r="I2">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344932</v>
       </c>
       <c r="J2">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344931</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N2">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O2">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P2">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q2">
-        <v>94.896446398306</v>
+        <v>262.331570969572</v>
       </c>
       <c r="R2">
-        <v>854.068017584754</v>
+        <v>2360.984138726148</v>
       </c>
       <c r="S2">
-        <v>0.02549341749811078</v>
+        <v>0.0370079087234793</v>
       </c>
       <c r="T2">
-        <v>0.02549341749811078</v>
+        <v>0.0370079087234793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.89290866666667</v>
+        <v>19.28294533333333</v>
       </c>
       <c r="H3">
-        <v>47.678726</v>
+        <v>57.848836</v>
       </c>
       <c r="I3">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344932</v>
       </c>
       <c r="J3">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344931</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.185244</v>
       </c>
       <c r="O3">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P3">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q3">
-        <v>16.874263991016</v>
+        <v>20.473628641776</v>
       </c>
       <c r="R3">
-        <v>151.868375919144</v>
+        <v>184.262657775984</v>
       </c>
       <c r="S3">
-        <v>0.004533179831526201</v>
+        <v>0.002888276760638704</v>
       </c>
       <c r="T3">
-        <v>0.004533179831526201</v>
+        <v>0.002888276760638703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.89290866666667</v>
+        <v>19.28294533333333</v>
       </c>
       <c r="H4">
-        <v>47.678726</v>
+        <v>57.848836</v>
       </c>
       <c r="I4">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344932</v>
       </c>
       <c r="J4">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344931</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N4">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O4">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P4">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q4">
-        <v>41.88190940946644</v>
+        <v>38.48434951850044</v>
       </c>
       <c r="R4">
-        <v>376.937184685198</v>
+        <v>346.359145666504</v>
       </c>
       <c r="S4">
-        <v>0.01125134863019109</v>
+        <v>0.005429103668305083</v>
       </c>
       <c r="T4">
-        <v>0.01125134863019109</v>
+        <v>0.005429103668305083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.89290866666667</v>
+        <v>19.28294533333333</v>
       </c>
       <c r="H5">
-        <v>47.678726</v>
+        <v>57.848836</v>
       </c>
       <c r="I5">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344932</v>
       </c>
       <c r="J5">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344931</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N5">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O5">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P5">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q5">
-        <v>0.4691692591124444</v>
+        <v>2.285922465133778</v>
       </c>
       <c r="R5">
-        <v>4.222523332012</v>
+        <v>20.573302186204</v>
       </c>
       <c r="S5">
-        <v>0.0001260397860382512</v>
+        <v>0.0003224820010262285</v>
       </c>
       <c r="T5">
-        <v>0.0001260397860382512</v>
+        <v>0.0003224820010262284</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>268.8003336666667</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H6">
-        <v>806.4010010000001</v>
+        <v>806.401001</v>
       </c>
       <c r="I6">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="J6">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N6">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O6">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P6">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q6">
-        <v>1605.004910721331</v>
+        <v>3656.848712111776</v>
       </c>
       <c r="R6">
-        <v>14445.04419649198</v>
+        <v>32911.63840900599</v>
       </c>
       <c r="S6">
-        <v>0.4311758957105409</v>
+        <v>0.5158827161108364</v>
       </c>
       <c r="T6">
-        <v>0.4311758957105409</v>
+        <v>0.5158827161108365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>268.8003336666667</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H7">
-        <v>806.4010010000001</v>
+        <v>806.401001</v>
       </c>
       <c r="I7">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="J7">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>3.185244</v>
       </c>
       <c r="O7">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P7">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q7">
-        <v>285.398216669916</v>
+        <v>285.3982166699159</v>
       </c>
       <c r="R7">
         <v>2568.583950029244</v>
       </c>
       <c r="S7">
-        <v>0.07667068859716891</v>
+        <v>0.04026199024893237</v>
       </c>
       <c r="T7">
-        <v>0.07667068859716891</v>
+        <v>0.04026199024893237</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>268.8003336666667</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H8">
-        <v>806.4010010000001</v>
+        <v>806.401001</v>
       </c>
       <c r="I8">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="J8">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N8">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O8">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P8">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q8">
-        <v>708.3581400976415</v>
+        <v>536.4640003223681</v>
       </c>
       <c r="R8">
-        <v>6375.223260878774</v>
+        <v>4828.176002901313</v>
       </c>
       <c r="S8">
-        <v>0.1902965863220858</v>
+        <v>0.07568060025709057</v>
       </c>
       <c r="T8">
-        <v>0.1902965863220858</v>
+        <v>0.07568060025709059</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>268.8003336666667</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H9">
-        <v>806.4010010000001</v>
+        <v>806.401001</v>
       </c>
       <c r="I9">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="J9">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N9">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O9">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P9">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q9">
-        <v>7.935165050062445</v>
+        <v>31.86529395495989</v>
       </c>
       <c r="R9">
-        <v>71.41648545056201</v>
+        <v>286.787645594639</v>
       </c>
       <c r="S9">
-        <v>0.002131739208532368</v>
+        <v>0.004495333465863231</v>
       </c>
       <c r="T9">
-        <v>0.002131739208532368</v>
+        <v>0.004495333465863231</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>57.32556</v>
+        <v>56.43559133333333</v>
       </c>
       <c r="H10">
-        <v>171.97668</v>
+        <v>169.306774</v>
       </c>
       <c r="I10">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="J10">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N10">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O10">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P10">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q10">
-        <v>342.29051748108</v>
+        <v>767.7684646793979</v>
       </c>
       <c r="R10">
-        <v>3080.61465732972</v>
+        <v>6909.916182114582</v>
       </c>
       <c r="S10">
-        <v>0.09195449776025892</v>
+        <v>0.1083114211400682</v>
       </c>
       <c r="T10">
-        <v>0.09195449776025892</v>
+        <v>0.1083114211400682</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>57.32556</v>
+        <v>56.43559133333333</v>
       </c>
       <c r="H11">
-        <v>171.97668</v>
+        <v>169.306774</v>
       </c>
       <c r="I11">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="J11">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.185244</v>
       </c>
       <c r="O11">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P11">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q11">
-        <v>60.86529867887999</v>
+        <v>59.92037622698399</v>
       </c>
       <c r="R11">
-        <v>547.7876881099199</v>
+        <v>539.2833860428559</v>
       </c>
       <c r="S11">
-        <v>0.0163511335699036</v>
+        <v>0.008453148837133197</v>
       </c>
       <c r="T11">
-        <v>0.0163511335699036</v>
+        <v>0.008453148837133198</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>57.32556</v>
+        <v>56.43559133333333</v>
       </c>
       <c r="H12">
-        <v>171.97668</v>
+        <v>169.306774</v>
       </c>
       <c r="I12">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="J12">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N12">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O12">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P12">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q12">
-        <v>151.06762148596</v>
+        <v>112.6325353627818</v>
       </c>
       <c r="R12">
-        <v>1359.60859337364</v>
+        <v>1013.692818265036</v>
       </c>
       <c r="S12">
-        <v>0.04058350013259188</v>
+        <v>0.01588941267188677</v>
       </c>
       <c r="T12">
-        <v>0.04058350013259187</v>
+        <v>0.01588941267188677</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>57.32556</v>
+        <v>56.43559133333333</v>
       </c>
       <c r="H13">
-        <v>171.97668</v>
+        <v>169.306774</v>
       </c>
       <c r="I13">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="J13">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N13">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O13">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P13">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q13">
-        <v>1.69228874824</v>
+        <v>6.690232422065112</v>
       </c>
       <c r="R13">
-        <v>15.23059873416</v>
+        <v>60.212091798586</v>
       </c>
       <c r="S13">
-        <v>0.0004546242269721888</v>
+        <v>0.0009438113373070363</v>
       </c>
       <c r="T13">
-        <v>0.0004546242269721887</v>
+        <v>0.0009438113373070363</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.83092566666667</v>
+        <v>77.91019566666667</v>
       </c>
       <c r="H14">
-        <v>125.492777</v>
+        <v>233.730587</v>
       </c>
       <c r="I14">
-        <v>0.1089773487260793</v>
+        <v>0.184433794777433</v>
       </c>
       <c r="J14">
-        <v>0.1089773487260793</v>
+        <v>0.1844337947774329</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N14">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O14">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P14">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q14">
-        <v>249.772164339187</v>
+        <v>1059.916090124099</v>
       </c>
       <c r="R14">
-        <v>2247.949479052683</v>
+        <v>9539.244811116891</v>
       </c>
       <c r="S14">
-        <v>0.06709994216410721</v>
+        <v>0.1495255709134966</v>
       </c>
       <c r="T14">
-        <v>0.06709994216410721</v>
+        <v>0.1495255709134966</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.83092566666667</v>
+        <v>77.91019566666667</v>
       </c>
       <c r="H15">
-        <v>125.492777</v>
+        <v>233.730587</v>
       </c>
       <c r="I15">
-        <v>0.1089773487260793</v>
+        <v>0.184433794777433</v>
       </c>
       <c r="J15">
-        <v>0.1089773487260793</v>
+        <v>0.1844337947774329</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.185244</v>
       </c>
       <c r="O15">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P15">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q15">
-        <v>44.41390166473199</v>
+        <v>82.72099442869199</v>
       </c>
       <c r="R15">
-        <v>399.725114982588</v>
+        <v>744.488949858228</v>
       </c>
       <c r="S15">
-        <v>0.01193155466651133</v>
+        <v>0.01166970105816032</v>
       </c>
       <c r="T15">
-        <v>0.01193155466651133</v>
+        <v>0.01166970105816032</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.83092566666667</v>
+        <v>77.91019566666667</v>
       </c>
       <c r="H16">
-        <v>125.492777</v>
+        <v>233.730587</v>
       </c>
       <c r="I16">
-        <v>0.1089773487260793</v>
+        <v>0.184433794777433</v>
       </c>
       <c r="J16">
-        <v>0.1089773487260793</v>
+        <v>0.1844337947774329</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N16">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O16">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P16">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q16">
-        <v>110.2352675668468</v>
+        <v>155.4909350859242</v>
       </c>
       <c r="R16">
-        <v>992.117408101621</v>
+        <v>1399.418415773318</v>
       </c>
       <c r="S16">
-        <v>0.02961410891301555</v>
+        <v>0.02193557684162911</v>
       </c>
       <c r="T16">
-        <v>0.02961410891301555</v>
+        <v>0.02193557684162911</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.83092566666667</v>
+        <v>77.91019566666667</v>
       </c>
       <c r="H17">
-        <v>125.492777</v>
+        <v>233.730587</v>
       </c>
       <c r="I17">
-        <v>0.1089773487260793</v>
+        <v>0.184433794777433</v>
       </c>
       <c r="J17">
-        <v>0.1089773487260793</v>
+        <v>0.1844337947774329</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N17">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O17">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P17">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q17">
-        <v>1.234876812963778</v>
+        <v>9.23596802556589</v>
       </c>
       <c r="R17">
-        <v>11.113891316674</v>
+        <v>83.12371223009302</v>
       </c>
       <c r="S17">
-        <v>0.000331742982445168</v>
+        <v>0.001302945964146884</v>
       </c>
       <c r="T17">
-        <v>0.000331742982445168</v>
+        <v>0.001302945964146884</v>
       </c>
     </row>
   </sheetData>
